--- a/docs/T4_Reporte.xlsx
+++ b/docs/T4_Reporte.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Santiago\Documents\Talleres\T4_202010\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jbelt\Downloads\Talleres\T4_202010\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B52C9FB4-785B-4F23-B17A-B21D439664F7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB584503-8C92-4874-A57C-760EB52C13E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{276641BD-B49B-405C-9709-2E95B0DA82CA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11280" xr2:uid="{276641BD-B49B-405C-9709-2E95B0DA82CA}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
   <si>
     <t>¿Cuándo ocurre el peor caso de agregar()?</t>
   </si>
@@ -85,6 +87,30 @@
   </si>
   <si>
     <t xml:space="preserve">Cuando al sacar el máximo el que queda en la raíz no toca moverlo. </t>
+  </si>
+  <si>
+    <t>Cuando se debe agregar el mayor o menor que debe quedar en el primer nodo</t>
+  </si>
+  <si>
+    <t>Cuando el que se va a agregar el el mayor o menor que debe quedarse en la hoja</t>
+  </si>
+  <si>
+    <t>Cuando se debe ir hasta las hojas</t>
+  </si>
+  <si>
+    <t>5673 ms</t>
+  </si>
+  <si>
+    <t>4789ms</t>
+  </si>
+  <si>
+    <t>Cuando es el primer nodo</t>
+  </si>
+  <si>
+    <t>Este proceso constante que debe repetirse 200.000 veces</t>
+  </si>
+  <si>
+    <t>8 segundos</t>
   </si>
 </sst>
 </file>
@@ -475,19 +501,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{159FB4CE-42AF-46CD-93A5-2F96B808DFD5}">
-  <dimension ref="B2:D12"/>
+  <dimension ref="B2:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B12"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="42.6640625" customWidth="1"/>
+    <col min="2" max="2" width="42.7109375" customWidth="1"/>
+    <col min="3" max="3" width="71.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="82" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
       <c r="C2" s="3" t="s">
         <v>10</v>
@@ -496,91 +523,118 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="D3" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="D4" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="D5" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="2"/>
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
       <c r="D6" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="2"/>
+      <c r="C8" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="D8" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="2"/>
+      <c r="C9" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="D9" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="2"/>
+      <c r="C10" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="D10" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="2"/>
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
       <c r="D11" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="2"/>
+      <c r="C12" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
